--- a/GiaoDuc/Source code/Deploy mapping.xlsx
+++ b/GiaoDuc/Source code/Deploy mapping.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\github\BanGiaoNCSw\GiaoDuc\Source code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BEB7CD-4510-468B-A95A-D7058FE275AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DESKTOP APP" sheetId="1" r:id="rId1"/>
     <sheet name="WEB" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>DEV</t>
   </si>
@@ -139,13 +144,19 @@
   </si>
   <si>
     <t>EduPupilSendMail</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +243,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -278,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,9 +329,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,6 +381,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,22 +574,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -544,21 +599,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -567,14 +626,15 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -583,71 +643,76 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="E11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="E12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="E13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -657,22 +722,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="18.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="18.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -682,13 +748,16 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -699,92 +768,101 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -795,60 +873,66 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -859,40 +943,44 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -903,64 +991,57 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GiaoDuc/Source code/Deploy mapping.xlsx
+++ b/GiaoDuc/Source code/Deploy mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\github\BanGiaoNCSw\GiaoDuc\Source code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BEB7CD-4510-468B-A95A-D7058FE275AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A425F9-B7B8-48EE-AFA1-1F5AEC1627AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>DEV</t>
   </si>
@@ -150,13 +150,105 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>10.12.1.155</t>
+  </si>
+  <si>
+    <t>eschool.nc.com</t>
+  </si>
+  <si>
+    <t>gaportal.nc.com</t>
+  </si>
+  <si>
+    <t>cdncss.eschool.nc.com</t>
+  </si>
+  <si>
+    <t>cdnjavascript.eschool.nc.com</t>
+  </si>
+  <si>
+    <t>samseduservicesweb.egovsams.com</t>
+  </si>
+  <si>
+    <t>samsmasterdataservicesweb.egovsams.com</t>
+  </si>
+  <si>
+    <t>Xóa cache</t>
+  </si>
+  <si>
+    <t>telnet 10.12.1.156 11211
+flush_all</t>
+  </si>
+  <si>
+    <t>BETA - ESCHOOL: 
+đăng nhập
+https://giaoducdientu.hnegov.vn/error/viewlog
+nc12917/Nc1234567890
+các key xem tại file cache web trong cùng folder</t>
+  </si>
+  <si>
+    <t>solienlacdientu.nc.com</t>
+  </si>
+  <si>
+    <t>api.pupil.nc.com</t>
+  </si>
+  <si>
+    <t>api.pupilnew.nc.com</t>
+  </si>
+  <si>
+    <t>tsdc.nc.com</t>
+  </si>
+  <si>
+    <t>ssoservice.nc.com</t>
+  </si>
+  <si>
+    <t>samseduservices.egovsams.com</t>
+  </si>
+  <si>
+    <t>samsmasterdataservices.egovsams.com</t>
+  </si>
+  <si>
+    <t>samsreportservices.egovsams.com</t>
+  </si>
+  <si>
+    <t>samsfmsservices.egovsams.com</t>
+  </si>
+  <si>
+    <t>giaoducdientu.hnegov.vn</t>
+  </si>
+  <si>
+    <t>cdngiaoducdientu.hnegov.vn</t>
+  </si>
+  <si>
+    <t>cdntsdaucap.hanoi.gov.vn</t>
+  </si>
+  <si>
+    <t>solienlacdientu.hanoi.gov.vn</t>
+  </si>
+  <si>
+    <t>tsdaucap.hanoi.gov.vn</t>
+  </si>
+  <si>
+    <t>apisolienlacdientu.hnegov.vn</t>
+  </si>
+  <si>
+    <t>apisolienlacdientu.hnegov.vn/v2</t>
+  </si>
+  <si>
+    <t>samseduservices.hnegov.vn (có địa chỉ riêng cho Web và eSams)</t>
+  </si>
+  <si>
+    <t>BETA - ESAMS: Tool - Xóa khi vừa upcode xong
+remote: 125.212.235.80:7125
+telnet 175.168.1.40 11211
+delete VersionUpdateFileData</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +272,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +298,16 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -219,10 +335,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,8 +355,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,16 +717,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
     <col min="6" max="6" width="53.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -643,18 +786,24 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -665,7 +814,9 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
@@ -676,7 +827,9 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
@@ -687,7 +840,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
@@ -697,23 +852,43 @@
       <c r="B10" t="s">
         <v>36</v>
       </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
       <c r="F10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
       <c r="F11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
       <c r="F13" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -723,17 +898,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="4"/>
     <col min="2" max="2" width="18.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="37.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -761,7 +936,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1"/>
@@ -772,12 +947,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,89 +960,105 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -876,69 +1066,77 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -946,47 +1144,55 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="G19" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>4</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -994,54 +1200,106 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>24</v>
+      <c r="A22" s="3">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="G24" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G26" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>5</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>